--- a/coef.xlsx
+++ b/coef.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>2,5</t>
   </si>
@@ -272,49 +272,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>7.6582499999999998E-2</c:v>
+                  <c:v>0.20225499999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5774299999999994E-2</c:v>
+                  <c:v>0.24668699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1462799999999998E-2</c:v>
+                  <c:v>0.34747299999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8834499999999998E-2</c:v>
+                  <c:v>0.49990400000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.6972200000000001E-2</c:v>
+                  <c:v>0.66058399999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.62157E-2</c:v>
+                  <c:v>0.74484499999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.4391599999999998E-2</c:v>
+                  <c:v>0.93806299999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3431100000000002E-2</c:v>
+                  <c:v>0.987124</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1570199999999997E-2</c:v>
+                  <c:v>0.55030599999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0188200000000002E-2</c:v>
+                  <c:v>0.59895600000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9096899999999999E-2</c:v>
+                  <c:v>0.59789000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8199699999999998E-2</c:v>
+                  <c:v>0.59701300000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.7440799999999998E-2</c:v>
+                  <c:v>0.59627200000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6785100000000003E-2</c:v>
+                  <c:v>0.59563100000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6209199999999999E-2</c:v>
+                  <c:v>4.5068799999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,49 +414,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>8.8702900000000001E-2</c:v>
+                  <c:v>0.21410999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.5528499999999998E-2</c:v>
+                  <c:v>0.25622400000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.03183E-2</c:v>
+                  <c:v>0.35613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.7155400000000004E-2</c:v>
+                  <c:v>0.50803699999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.4920400000000003E-2</c:v>
+                  <c:v>0.66835299999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4014100000000004E-2</c:v>
+                  <c:v>0.752467</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.1832199999999997E-2</c:v>
+                  <c:v>0.94533400000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.06854E-2</c:v>
+                  <c:v>0.99421300000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.8467699999999997E-2</c:v>
+                  <c:v>0.55704600000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6824300000000001E-2</c:v>
+                  <c:v>0.60543999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.55287E-2</c:v>
+                  <c:v>0.60417399999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.4465E-2</c:v>
+                  <c:v>0.60313399999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.35664E-2</c:v>
+                  <c:v>0.60225600000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.2790700000000003E-2</c:v>
+                  <c:v>0.60149799999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2109999999999997E-2</c:v>
+                  <c:v>5.0833299999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -556,49 +556,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.8951599999999999E-2</c:v>
+                  <c:v>0.14621700000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.4527299999999995E-2</c:v>
+                  <c:v>0.274808</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.7445200000000001E-2</c:v>
+                  <c:v>0.37287900000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3177100000000004E-2</c:v>
+                  <c:v>0.52370399999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.01756E-2</c:v>
+                  <c:v>0.68326900000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8961900000000002E-2</c:v>
+                  <c:v>0.76708200000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.6048299999999999E-2</c:v>
+                  <c:v>0.95923199999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.4521699999999996E-2</c:v>
+                  <c:v>1.0077400000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.1578900000000001E-2</c:v>
+                  <c:v>0.56986199999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9406300000000004E-2</c:v>
+                  <c:v>0.61773800000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.7698499999999995E-2</c:v>
+                  <c:v>0.61606799999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6299700000000003E-2</c:v>
+                  <c:v>0.61470100000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.5120200000000003E-2</c:v>
+                  <c:v>0.61354799999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.4103900000000005E-2</c:v>
+                  <c:v>0.61255400000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.32133E-2</c:v>
+                  <c:v>6.16839E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,49 +698,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>9.1153499999999998E-2</c:v>
+                  <c:v>0.217526</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3132699999999998E-2</c:v>
+                  <c:v>0.23497599999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1156400000000003E-2</c:v>
+                  <c:v>0.328148</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4783500000000002E-2</c:v>
+                  <c:v>0.47685300000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0676200000000001E-2</c:v>
+                  <c:v>0.635297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.9101999999999999E-2</c:v>
+                  <c:v>0.71874199999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.5524100000000001E-2</c:v>
+                  <c:v>0.91020900000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.37617E-2</c:v>
+                  <c:v>0.95846799999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0578200000000001E-2</c:v>
+                  <c:v>0.52032400000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8405700000000001E-2</c:v>
+                  <c:v>0.56817799999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6802000000000001E-2</c:v>
+                  <c:v>0.56659400000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.55557E-2</c:v>
+                  <c:v>0.56536299999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4551E-2</c:v>
+                  <c:v>0.56437099999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.101481</c:v>
+                  <c:v>0.64911300000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.9799600000000002E-2</c:v>
+                  <c:v>9.7467200000000004E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -840,49 +840,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.32833800000000002</c:v>
+                  <c:v>0.45177800000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.189364</c:v>
+                  <c:v>0.36952299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14660300000000001</c:v>
+                  <c:v>0.43229000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12385699999999999</c:v>
+                  <c:v>0.56482500000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10920100000000001</c:v>
+                  <c:v>0.71285100000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.103585</c:v>
+                  <c:v>0.79230400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.08225E-2</c:v>
+                  <c:v>0.97469899999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.4537000000000001E-2</c:v>
+                  <c:v>1.0184899999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3186000000000001E-2</c:v>
+                  <c:v>0.57228100000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5441700000000005E-2</c:v>
+                  <c:v>0.61463299999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.0521499999999999E-2</c:v>
+                  <c:v>0.60977300000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.6031999999999998E-2</c:v>
+                  <c:v>0.60533899999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2413099999999997E-2</c:v>
+                  <c:v>0.60176499999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9415599999999997E-2</c:v>
+                  <c:v>0.59880500000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6879700000000003E-2</c:v>
+                  <c:v>4.6300099999999997E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -972,7 +972,7 @@
         <c:axId val="424255759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.25"/>
+          <c:max val="1.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3254,6 +3254,366 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$31:$Q$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$32:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AB7-419C-A2BF-AEB6C035D355}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="556025792"/>
+        <c:axId val="556026208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="556025792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+          <c:min val="0.8"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556026208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="556026208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.21000000000000002"/>
+          <c:min val="5.000000000000001E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="556025792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3374,6 +3734,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4922,20 +5322,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4992,15 +5908,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5016,6 +5932,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5290,14 +6236,14 @@
   <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>7.6582499999999998E-2</v>
+        <v>0.20225499999999999</v>
       </c>
       <c r="B1">
         <v>0.1</v>
@@ -5305,7 +6251,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>6.5774299999999994E-2</v>
+        <v>0.24668699999999999</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -5313,7 +6259,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>6.1462799999999998E-2</v>
+        <v>0.34747299999999998</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -5321,7 +6267,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5.8834499999999998E-2</v>
+        <v>0.49990400000000002</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -5329,7 +6275,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5.6972200000000001E-2</v>
+        <v>0.66058399999999995</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -5337,7 +6283,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5.62157E-2</v>
+        <v>0.74484499999999998</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5345,7 +6291,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5.4391599999999998E-2</v>
+        <v>0.93806299999999998</v>
       </c>
       <c r="B7">
         <v>1.3</v>
@@ -5353,7 +6299,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5.3431100000000002E-2</v>
+        <v>0.987124</v>
       </c>
       <c r="B8">
         <v>1.5</v>
@@ -5361,7 +6307,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5.1570199999999997E-2</v>
+        <v>0.55030599999999996</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -5369,7 +6315,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5.0188200000000002E-2</v>
+        <v>0.59895600000000004</v>
       </c>
       <c r="B10">
         <v>2.5</v>
@@ -5377,7 +6323,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4.9096899999999999E-2</v>
+        <v>0.59789000000000003</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -5385,7 +6331,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4.8199699999999998E-2</v>
+        <v>0.59701300000000002</v>
       </c>
       <c r="B12">
         <v>3.5</v>
@@ -5393,7 +6339,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4.7440799999999998E-2</v>
+        <v>0.59627200000000002</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -5401,7 +6347,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4.6785100000000003E-2</v>
+        <v>0.59563100000000002</v>
       </c>
       <c r="B14">
         <v>4.5</v>
@@ -5409,7 +6355,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4.6209199999999999E-2</v>
+        <v>4.5068799999999999E-2</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -5417,7 +6363,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>8.8702900000000001E-2</v>
+        <v>0.21410999999999999</v>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -5425,7 +6371,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7.5528499999999998E-2</v>
+        <v>0.25622400000000001</v>
       </c>
       <c r="B18">
         <v>0.3</v>
@@ -5433,7 +6379,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>7.03183E-2</v>
+        <v>0.35613</v>
       </c>
       <c r="B19">
         <v>0.5</v>
@@ -5441,7 +6387,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>6.7155400000000004E-2</v>
+        <v>0.50803699999999996</v>
       </c>
       <c r="B20">
         <v>0.7</v>
@@ -5449,7 +6395,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>6.4920400000000003E-2</v>
+        <v>0.66835299999999997</v>
       </c>
       <c r="B21">
         <v>0.9</v>
@@ -5457,7 +6403,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>6.4014100000000004E-2</v>
+        <v>0.752467</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -5465,7 +6411,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>6.1832199999999997E-2</v>
+        <v>0.94533400000000001</v>
       </c>
       <c r="B23">
         <v>1.3</v>
@@ -5473,7 +6419,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6.06854E-2</v>
+        <v>0.99421300000000001</v>
       </c>
       <c r="B24">
         <v>1.5</v>
@@ -5481,7 +6427,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>5.8467699999999997E-2</v>
+        <v>0.55704600000000004</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -5489,7 +6435,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5.6824300000000001E-2</v>
+        <v>0.60543999999999998</v>
       </c>
       <c r="B26">
         <v>2.5</v>
@@ -5497,7 +6443,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5.55287E-2</v>
+        <v>0.60417399999999999</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -5505,7 +6451,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5.4465E-2</v>
+        <v>0.60313399999999995</v>
       </c>
       <c r="B28">
         <v>3.5</v>
@@ -5513,7 +6459,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5.35664E-2</v>
+        <v>0.60225600000000001</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -5521,7 +6467,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5.2790700000000003E-2</v>
+        <v>0.60149799999999998</v>
       </c>
       <c r="B30">
         <v>4.5</v>
@@ -5529,7 +6475,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5.2109999999999997E-2</v>
+        <v>5.0833299999999998E-2</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -5537,7 +6483,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1.8951599999999999E-2</v>
+        <v>0.14621700000000001</v>
       </c>
       <c r="B33">
         <v>0.1</v>
@@ -5545,7 +6491,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>9.4527299999999995E-2</v>
+        <v>0.274808</v>
       </c>
       <c r="B34">
         <v>0.3</v>
@@ -5553,7 +6499,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>8.7445200000000001E-2</v>
+        <v>0.37287900000000002</v>
       </c>
       <c r="B35">
         <v>0.5</v>
@@ -5561,7 +6507,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>8.3177100000000004E-2</v>
+        <v>0.52370399999999995</v>
       </c>
       <c r="B36">
         <v>0.7</v>
@@ -5569,7 +6515,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>8.01756E-2</v>
+        <v>0.68326900000000002</v>
       </c>
       <c r="B37">
         <v>0.9</v>
@@ -5577,7 +6523,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>7.8961900000000002E-2</v>
+        <v>0.76708200000000004</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5585,7 +6531,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>7.6048299999999999E-2</v>
+        <v>0.95923199999999997</v>
       </c>
       <c r="B39">
         <v>1.3</v>
@@ -5593,7 +6539,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>7.4521699999999996E-2</v>
+        <v>1.0077400000000001</v>
       </c>
       <c r="B40">
         <v>1.5</v>
@@ -5601,7 +6547,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>7.1578900000000001E-2</v>
+        <v>0.56986199999999998</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -5609,7 +6555,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>6.9406300000000004E-2</v>
+        <v>0.61773800000000001</v>
       </c>
       <c r="B42">
         <v>2.5</v>
@@ -5617,7 +6563,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>6.7698499999999995E-2</v>
+        <v>0.61606799999999995</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -5625,7 +6571,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>6.6299700000000003E-2</v>
+        <v>0.61470100000000005</v>
       </c>
       <c r="B44">
         <v>3.5</v>
@@ -5633,7 +6579,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>6.5120200000000003E-2</v>
+        <v>0.61354799999999998</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -5641,7 +6587,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>6.4103900000000005E-2</v>
+        <v>0.61255400000000004</v>
       </c>
       <c r="B46">
         <v>4.5</v>
@@ -5649,7 +6595,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>6.32133E-2</v>
+        <v>6.16839E-2</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -5657,7 +6603,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>9.1153499999999998E-2</v>
+        <v>0.217526</v>
       </c>
       <c r="B49">
         <v>0.1</v>
@@ -5665,7 +6611,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5.3132699999999998E-2</v>
+        <v>0.23497599999999999</v>
       </c>
       <c r="B50">
         <v>0.3</v>
@@ -5673,7 +6619,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>4.1156400000000003E-2</v>
+        <v>0.328148</v>
       </c>
       <c r="B51">
         <v>0.5</v>
@@ -5681,7 +6627,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>3.4783500000000002E-2</v>
+        <v>0.47685300000000003</v>
       </c>
       <c r="B52">
         <v>0.7</v>
@@ -5689,7 +6635,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>3.0676200000000001E-2</v>
+        <v>0.635297</v>
       </c>
       <c r="B53">
         <v>0.9</v>
@@ -5697,7 +6643,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2.9101999999999999E-2</v>
+        <v>0.71874199999999999</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -5705,7 +6651,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2.5524100000000001E-2</v>
+        <v>0.91020900000000005</v>
       </c>
       <c r="B55">
         <v>1.3</v>
@@ -5713,7 +6659,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2.37617E-2</v>
+        <v>0.95846799999999999</v>
       </c>
       <c r="B56">
         <v>1.5</v>
@@ -5721,7 +6667,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2.0578200000000001E-2</v>
+        <v>0.52032400000000001</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -5729,7 +6675,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1.8405700000000001E-2</v>
+        <v>0.56817799999999996</v>
       </c>
       <c r="B58">
         <v>2.5</v>
@@ -5737,7 +6683,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1.6802000000000001E-2</v>
+        <v>0.56659400000000004</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -5745,7 +6691,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1.55557E-2</v>
+        <v>0.56536299999999995</v>
       </c>
       <c r="B60">
         <v>3.5</v>
@@ -5753,7 +6699,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1.4551E-2</v>
+        <v>0.56437099999999996</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -5761,7 +6707,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.101481</v>
+        <v>0.64911300000000005</v>
       </c>
       <c r="B62">
         <v>4.5</v>
@@ -5769,7 +6715,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>9.9799600000000002E-2</v>
+        <v>9.7467200000000004E-2</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -5777,7 +6723,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.32833800000000002</v>
+        <v>0.45177800000000001</v>
       </c>
       <c r="B65">
         <v>0.1</v>
@@ -5785,7 +6731,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.189364</v>
+        <v>0.36952299999999999</v>
       </c>
       <c r="B66">
         <v>0.3</v>
@@ -5793,7 +6739,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.14660300000000001</v>
+        <v>0.43229000000000001</v>
       </c>
       <c r="B67">
         <v>0.5</v>
@@ -5801,7 +6747,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.12385699999999999</v>
+        <v>0.56482500000000002</v>
       </c>
       <c r="B68">
         <v>0.7</v>
@@ -5809,7 +6755,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.10920100000000001</v>
+        <v>0.71285100000000001</v>
       </c>
       <c r="B69">
         <v>0.9</v>
@@ -5817,7 +6763,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.103585</v>
+        <v>0.79230400000000001</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -5825,7 +6771,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>9.08225E-2</v>
+        <v>0.97469899999999998</v>
       </c>
       <c r="B71">
         <v>1.3</v>
@@ -5833,7 +6779,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>8.4537000000000001E-2</v>
+        <v>1.0184899999999999</v>
       </c>
       <c r="B72">
         <v>1.5</v>
@@ -5841,7 +6787,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>7.3186000000000001E-2</v>
+        <v>0.57228100000000004</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -5849,7 +6795,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>6.5441700000000005E-2</v>
+        <v>0.61463299999999998</v>
       </c>
       <c r="B74">
         <v>2.5</v>
@@ -5857,7 +6803,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>6.0521499999999999E-2</v>
+        <v>0.60977300000000001</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -5865,7 +6811,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>5.6031999999999998E-2</v>
+        <v>0.60533899999999996</v>
       </c>
       <c r="B76">
         <v>3.5</v>
@@ -5873,7 +6819,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>5.2413099999999997E-2</v>
+        <v>0.60176499999999999</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -5881,7 +6827,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>4.9415599999999997E-2</v>
+        <v>0.59880500000000003</v>
       </c>
       <c r="B78">
         <v>4.5</v>
@@ -5889,7 +6835,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>4.6879700000000003E-2</v>
+        <v>4.6300099999999997E-2</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -5903,10 +6849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:Q32"/>
+  <dimension ref="F3:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6591,6 +7537,585 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="39" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="J39" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>2</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>3</v>
+      </c>
+      <c r="O39" s="1">
+        <v>4</v>
+      </c>
+      <c r="P39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K40" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="N40" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="O40" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="P40" s="2">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="41" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0.4</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>0</v>
+      </c>
+      <c r="P41" s="2">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="42" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0.8</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0.04</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>1.2</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="L43" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="O43" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P43" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="44" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>1.6</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L44" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N44" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="45" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="I45" s="2">
+        <v>1</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="N45" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="O45" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="P45" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="46" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>2.4</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L46" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="N46" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O46" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="47" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>2.8</v>
+      </c>
+      <c r="H47" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L47" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="N47" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="O47" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="P47" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="48" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J48" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K48" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L48" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="N48" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="O48" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="49" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="I49" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J49" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="K49" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L49" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="O49" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="54" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="J54" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="K54" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0</v>
+      </c>
+      <c r="N54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>0.4</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="J55" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="K55" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="N55" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="56" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>0.8</v>
+      </c>
+      <c r="I56" s="5">
+        <v>0.32</v>
+      </c>
+      <c r="J56" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="K56" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="L56" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="N56" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="57" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>1.2</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="J57" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K57" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="L57" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="M57" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="N57" s="5">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="58" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>1.6</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L58" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="M58" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N58" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="59" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="K59" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="M59" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N59" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="60" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>2.4</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="N60" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="61" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>2.8</v>
+      </c>
+      <c r="I61" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="K61" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="L61" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="62" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="J62" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K62" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L62" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="N62" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="63" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63" s="5">
+        <v>0.24</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K63" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L63" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M63" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="N63" s="5">
+        <v>0.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/coef.xlsx
+++ b/coef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -272,19 +272,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.20225499999999999</c:v>
+                  <c:v>0.287831</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.24668699999999999</c:v>
+                  <c:v>0.33904000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34747299999999998</c:v>
+                  <c:v>0.44301499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49990400000000002</c:v>
+                  <c:v>0.59756100000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66058399999999995</c:v>
+                  <c:v>0.75982700000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.74484499999999998</c:v>
@@ -414,19 +414,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.21410999999999999</c:v>
+                  <c:v>0.29361399999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25622400000000001</c:v>
+                  <c:v>0.34239700000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35613</c:v>
+                  <c:v>0.44544299999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50803699999999996</c:v>
+                  <c:v>0.59943400000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66835299999999997</c:v>
+                  <c:v>0.76131199999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.752467</c:v>
@@ -556,19 +556,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.14621700000000001</c:v>
+                  <c:v>0.31723899999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.274808</c:v>
+                  <c:v>0.35181899999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.37287900000000002</c:v>
+                  <c:v>0.45295400000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52370399999999995</c:v>
+                  <c:v>0.60581200000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68326900000000002</c:v>
+                  <c:v>0.76690199999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.76708200000000004</c:v>
@@ -698,19 +698,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.217526</c:v>
+                  <c:v>0.29550700000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23497599999999999</c:v>
+                  <c:v>0.337115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.328148</c:v>
+                  <c:v>0.44420100000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.47685300000000003</c:v>
+                  <c:v>0.60309100000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.635297</c:v>
+                  <c:v>0.76971999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.71874199999999999</c:v>
@@ -840,19 +840,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.45177800000000001</c:v>
+                  <c:v>0.49286600000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.36952299999999999</c:v>
+                  <c:v>0.423626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.43229000000000001</c:v>
+                  <c:v>0.49378</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.56482500000000002</c:v>
+                  <c:v>0.63172399999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.71285100000000001</c:v>
+                  <c:v>0.78409700000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.79230400000000001</c:v>
@@ -6235,15 +6235,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.20225499999999999</v>
+        <v>0.287831</v>
       </c>
       <c r="B1">
         <v>0.1</v>
@@ -6251,7 +6251,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.24668699999999999</v>
+        <v>0.33904000000000001</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -6259,7 +6259,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.34747299999999998</v>
+        <v>0.44301499999999999</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.49990400000000002</v>
+        <v>0.59756100000000001</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.66058399999999995</v>
+        <v>0.75982700000000003</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.21410999999999999</v>
+        <v>0.29361399999999999</v>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -6371,7 +6371,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.25622400000000001</v>
+        <v>0.34239700000000001</v>
       </c>
       <c r="B18">
         <v>0.3</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.35613</v>
+        <v>0.44544299999999998</v>
       </c>
       <c r="B19">
         <v>0.5</v>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.50803699999999996</v>
+        <v>0.59943400000000002</v>
       </c>
       <c r="B20">
         <v>0.7</v>
@@ -6395,7 +6395,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.66835299999999997</v>
+        <v>0.76131199999999999</v>
       </c>
       <c r="B21">
         <v>0.9</v>
@@ -6483,7 +6483,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.14621700000000001</v>
+        <v>0.31723899999999999</v>
       </c>
       <c r="B33">
         <v>0.1</v>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.274808</v>
+        <v>0.35181899999999999</v>
       </c>
       <c r="B34">
         <v>0.3</v>
@@ -6499,7 +6499,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.37287900000000002</v>
+        <v>0.45295400000000002</v>
       </c>
       <c r="B35">
         <v>0.5</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.52370399999999995</v>
+        <v>0.60581200000000002</v>
       </c>
       <c r="B36">
         <v>0.7</v>
@@ -6515,7 +6515,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.68326900000000002</v>
+        <v>0.76690199999999997</v>
       </c>
       <c r="B37">
         <v>0.9</v>
@@ -6603,7 +6603,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.217526</v>
+        <v>0.29550700000000002</v>
       </c>
       <c r="B49">
         <v>0.1</v>
@@ -6611,7 +6611,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.23497599999999999</v>
+        <v>0.337115</v>
       </c>
       <c r="B50">
         <v>0.3</v>
@@ -6619,7 +6619,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.328148</v>
+        <v>0.44420100000000001</v>
       </c>
       <c r="B51">
         <v>0.5</v>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.47685300000000003</v>
+        <v>0.60309100000000004</v>
       </c>
       <c r="B52">
         <v>0.7</v>
@@ -6635,7 +6635,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.635297</v>
+        <v>0.76971999999999996</v>
       </c>
       <c r="B53">
         <v>0.9</v>
@@ -6723,7 +6723,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.45177800000000001</v>
+        <v>0.49286600000000003</v>
       </c>
       <c r="B65">
         <v>0.1</v>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.36952299999999999</v>
+        <v>0.423626</v>
       </c>
       <c r="B66">
         <v>0.3</v>
@@ -6739,7 +6739,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.43229000000000001</v>
+        <v>0.49378</v>
       </c>
       <c r="B67">
         <v>0.5</v>
@@ -6747,7 +6747,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.56482500000000002</v>
+        <v>0.63172399999999995</v>
       </c>
       <c r="B68">
         <v>0.7</v>
@@ -6755,7 +6755,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.71285100000000001</v>
+        <v>0.78409700000000004</v>
       </c>
       <c r="B69">
         <v>0.9</v>
@@ -6849,10 +6849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:Q63"/>
+  <dimension ref="F3:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T53" sqref="T53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7537,7 +7537,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="7:21" x14ac:dyDescent="0.25">
       <c r="H39" s="1">
         <v>0</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G40">
         <v>0</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="41" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G41">
         <v>0.4</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="42" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>0.8</v>
       </c>
@@ -7661,8 +7661,14 @@
       <c r="P42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T42">
+        <v>0.8</v>
+      </c>
+      <c r="U42" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="43" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G43">
         <v>1.2</v>
       </c>
@@ -7693,8 +7699,14 @@
       <c r="P43" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="44" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T43">
+        <v>1</v>
+      </c>
+      <c r="U43" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G44">
         <v>1.6</v>
       </c>
@@ -7725,8 +7737,14 @@
       <c r="P44" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="45" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T44">
+        <v>1.4</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="45" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G45">
         <v>2</v>
       </c>
@@ -7757,8 +7775,14 @@
       <c r="P45" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="46" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T45">
+        <v>1.8</v>
+      </c>
+      <c r="U45" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="46" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G46">
         <v>2.4</v>
       </c>
@@ -7789,8 +7813,14 @@
       <c r="P46" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="47" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G47">
         <v>2.8</v>
       </c>
@@ -7821,8 +7851,14 @@
       <c r="P47" s="2">
         <v>0.04</v>
       </c>
-    </row>
-    <row r="48" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T47">
+        <v>2.6</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="48" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G48">
         <v>4</v>
       </c>
@@ -7853,8 +7889,14 @@
       <c r="P48" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="49" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>3</v>
+      </c>
+      <c r="U48" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="49" spans="7:21" x14ac:dyDescent="0.25">
       <c r="G49">
         <v>5</v>
       </c>
@@ -7885,8 +7927,46 @@
       <c r="P49" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="54" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="T49">
+        <v>3.4</v>
+      </c>
+      <c r="U49" s="2">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="50" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="T50">
+        <v>3.8</v>
+      </c>
+      <c r="U50" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="T51">
+        <v>4.2</v>
+      </c>
+      <c r="U51" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="T52">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U52" s="2">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="53" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="T53">
+        <v>5</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="54" spans="7:21" x14ac:dyDescent="0.25">
       <c r="H54">
         <v>0</v>
       </c>
@@ -7909,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="7:21" x14ac:dyDescent="0.25">
       <c r="H55">
         <v>0.4</v>
       </c>
@@ -7932,7 +8012,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="56" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="7:21" x14ac:dyDescent="0.25">
       <c r="H56">
         <v>0.8</v>
       </c>
@@ -7955,7 +8035,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="57" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="7:21" x14ac:dyDescent="0.25">
       <c r="H57">
         <v>1.2</v>
       </c>
@@ -7978,7 +8058,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="58" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="7:21" x14ac:dyDescent="0.25">
       <c r="H58">
         <v>1.6</v>
       </c>
@@ -8001,7 +8081,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="59" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="7:21" x14ac:dyDescent="0.25">
       <c r="H59">
         <v>2</v>
       </c>
@@ -8024,7 +8104,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="7:21" x14ac:dyDescent="0.25">
       <c r="H60">
         <v>2.4</v>
       </c>
@@ -8047,7 +8127,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="61" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="7:21" x14ac:dyDescent="0.25">
       <c r="H61">
         <v>2.8</v>
       </c>
@@ -8070,7 +8150,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="62" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="7:21" x14ac:dyDescent="0.25">
       <c r="H62">
         <v>4</v>
       </c>
@@ -8093,7 +8173,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="63" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="7:21" x14ac:dyDescent="0.25">
       <c r="H63">
         <v>5</v>
       </c>

--- a/coef.xlsx
+++ b/coef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>2,5</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>дно</t>
+  </si>
+  <si>
+    <t>норм обтекатель</t>
+  </si>
+  <si>
+    <t>норм конус</t>
   </si>
 </sst>
 </file>
@@ -106,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -116,6 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3614,6 +3621,1532 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$37:$O$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$38:$O$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-3289-4799-86E2-930265377178}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$37:$O$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$39:$O$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-3289-4799-86E2-930265377178}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$37:$O$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$40:$O$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-3289-4799-86E2-930265377178}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$37:$O$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$41:$O$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-3289-4799-86E2-930265377178}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$37:$O$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$42:$O$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-3289-4799-86E2-930265377178}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="530871535"/>
+        <c:axId val="530860303"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="530871535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530860303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="530860303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3.0000000000000006E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530871535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$37:$O$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$47:$O$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.03</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D80D-42CE-BDD2-4E99456A9E4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$37:$O$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$48:$O$48</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5499999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D80D-42CE-BDD2-4E99456A9E4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$37:$O$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$49:$O$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D80D-42CE-BDD2-4E99456A9E4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$37:$O$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$51:$O$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D80D-42CE-BDD2-4E99456A9E4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$46:$O$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$50:$O$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.5000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.5E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D80D-42CE-BDD2-4E99456A9E4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="530871535"/>
+        <c:axId val="530860303"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="530871535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530860303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="530860303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3.0000000000000006E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530871535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3774,6 +5307,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5323,6 +6936,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5962,6 +8607,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6235,7 +8944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A79"/>
     </sheetView>
   </sheetViews>
@@ -6849,10 +9558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:U63"/>
+  <dimension ref="F3:X87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T53" sqref="T53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7537,662 +10246,1050 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="H39" s="1">
+    <row r="36" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>-0.4</v>
+      </c>
+      <c r="H37">
         <v>0</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I37">
+        <v>0.4</v>
+      </c>
+      <c r="J37">
+        <v>0.8</v>
+      </c>
+      <c r="K37">
+        <v>1.2</v>
+      </c>
+      <c r="L37">
+        <v>1.6</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>2.4</v>
+      </c>
+      <c r="O37">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H38">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="I38">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="J38">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="K38">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L38">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="M38">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="N38">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="O38">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H39">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I39">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J39">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K39">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="L39">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="M39">
+        <v>0.04</v>
+      </c>
+      <c r="N39">
+        <v>3.9E-2</v>
+      </c>
+      <c r="O39">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="40" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H40">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I40">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J40">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K40">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="L40">
+        <v>5.5E-2</v>
+      </c>
+      <c r="M40">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N40">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="O40">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H41">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I41">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J41">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="K41">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="L41">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="M41">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="N41">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="O41">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H42">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I42">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J42">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K42">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="L42">
+        <v>0.06</v>
+      </c>
+      <c r="M42">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="N42">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="O42">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="44" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>-0.4</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0.4</v>
+      </c>
+      <c r="J46">
+        <v>0.8</v>
+      </c>
+      <c r="K46">
+        <v>1.2</v>
+      </c>
+      <c r="L46">
+        <v>1.6</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>2.4</v>
+      </c>
+      <c r="O46">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="47" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H47" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I47" s="7">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="J47" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="K47" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="L47" s="7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="M47" s="7">
+        <v>3.1E-2</v>
+      </c>
+      <c r="N47" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="O47" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="48" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H48" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I48" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J48" s="7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="K48" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="L48" s="7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="M48" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="N48" s="7">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="O48" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H49" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I49" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J49" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="K49" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="L49" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="M49" s="7">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="N49" s="7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="O49" s="7">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H50" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I50" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J50" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K50" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="L50" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="M50" s="7">
+        <v>4.7E-2</v>
+      </c>
+      <c r="N50" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="O50" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H51" s="7">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I51" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="J51" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="K51" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="L51" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M51" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="N51" s="7">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="O51" s="7">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="K63" s="1">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1">
         <v>0.25</v>
       </c>
-      <c r="J39" s="1">
+      <c r="M63" s="1">
         <v>0.5</v>
       </c>
-      <c r="K39" s="1">
+      <c r="N63" s="1">
         <v>1</v>
       </c>
-      <c r="L39" s="1">
+      <c r="O63" s="1">
         <v>2</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="P63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N39" s="1">
+      <c r="Q63" s="1">
         <v>3</v>
       </c>
-      <c r="O39" s="1">
+      <c r="R63" s="1">
         <v>4</v>
       </c>
-      <c r="P39" s="1">
+      <c r="S63" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G40">
+    <row r="64" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="J64">
         <v>0</v>
       </c>
-      <c r="H40" s="2">
+      <c r="K64" s="2">
         <v>0.8</v>
       </c>
-      <c r="I40" s="2">
+      <c r="L64" s="2">
         <v>0.1</v>
       </c>
-      <c r="J40" s="2">
+      <c r="M64" s="2">
         <v>0.05</v>
       </c>
-      <c r="K40" s="2">
+      <c r="N64" s="2">
         <v>0.05</v>
       </c>
-      <c r="L40" s="2">
+      <c r="O64" s="2">
         <v>0</v>
       </c>
-      <c r="M40" s="2">
+      <c r="P64" s="2">
         <v>-0.02</v>
       </c>
-      <c r="N40" s="2">
+      <c r="Q64" s="2">
         <v>-0.02</v>
       </c>
-      <c r="O40" s="2">
+      <c r="R64" s="2">
         <v>-0.02</v>
       </c>
-      <c r="P40" s="2">
+      <c r="S64" s="2">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="41" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G41">
+    <row r="65" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J65">
         <v>0.4</v>
       </c>
-      <c r="H41" s="2">
+      <c r="K65" s="2">
         <v>0.85</v>
       </c>
-      <c r="I41" s="2">
+      <c r="L65" s="2">
         <v>0.2</v>
       </c>
-      <c r="J41" s="2">
+      <c r="M65" s="2">
         <v>0.05</v>
       </c>
-      <c r="K41" s="2">
+      <c r="N65" s="2">
         <v>0.05</v>
       </c>
-      <c r="L41" s="2">
+      <c r="O65" s="2">
         <v>0.01</v>
       </c>
-      <c r="M41" s="2">
+      <c r="P65" s="2">
         <v>0</v>
       </c>
-      <c r="N41" s="2">
+      <c r="Q65" s="2">
         <v>0</v>
       </c>
-      <c r="O41" s="2">
+      <c r="R65" s="2">
         <v>0</v>
       </c>
-      <c r="P41" s="2">
+      <c r="S65" s="2">
         <v>-0.02</v>
       </c>
     </row>
-    <row r="42" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G42">
+    <row r="66" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J66">
         <v>0.8</v>
       </c>
-      <c r="H42" s="2">
+      <c r="K66" s="2">
         <v>0.9</v>
       </c>
-      <c r="I42" s="2">
+      <c r="L66" s="2">
         <v>0.4</v>
       </c>
-      <c r="J42" s="2">
+      <c r="M66" s="2">
         <v>0.1</v>
       </c>
-      <c r="K42" s="2">
+      <c r="N66" s="2">
         <v>0.1</v>
       </c>
-      <c r="L42" s="2">
+      <c r="O66" s="2">
         <v>0.08</v>
       </c>
-      <c r="M42" s="2">
+      <c r="P66" s="2">
         <v>0.08</v>
       </c>
-      <c r="N42" s="4">
+      <c r="Q66" s="4">
         <v>0.04</v>
       </c>
-      <c r="O42" s="2">
+      <c r="R66" s="2">
         <v>0.02</v>
       </c>
-      <c r="P42" s="2">
+      <c r="S66" s="2">
         <v>0</v>
       </c>
-      <c r="T42">
+      <c r="W66">
         <v>0.8</v>
       </c>
-      <c r="U42" s="2">
+      <c r="X66" s="2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="43" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G43">
+    <row r="67" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J67">
         <v>1.2</v>
       </c>
-      <c r="H43" s="2">
+      <c r="K67" s="2">
         <v>1.2</v>
       </c>
-      <c r="I43" s="2">
+      <c r="L67" s="2">
         <v>0.7</v>
       </c>
-      <c r="J43" s="2">
+      <c r="M67" s="2">
         <v>0.5</v>
       </c>
-      <c r="K43" s="2">
+      <c r="N67" s="2">
         <v>0.3</v>
       </c>
-      <c r="L43" s="2">
+      <c r="O67" s="2">
         <v>0.21</v>
       </c>
-      <c r="M43" s="2">
+      <c r="P67" s="2">
         <v>0.15</v>
       </c>
-      <c r="N43" s="4">
+      <c r="Q67" s="4">
         <v>0.11</v>
       </c>
-      <c r="O43" s="2">
+      <c r="R67" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P43" s="2">
+      <c r="S67" s="2">
         <v>0.04</v>
       </c>
-      <c r="T43">
+      <c r="W67">
         <v>1</v>
       </c>
-      <c r="U43" s="2">
+      <c r="X67" s="2">
         <v>0.2</v>
       </c>
     </row>
-    <row r="44" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G44">
+    <row r="68" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J68">
         <v>1.6</v>
       </c>
-      <c r="H44" s="2">
+      <c r="K68" s="2">
         <v>1.35</v>
       </c>
-      <c r="I44" s="2">
+      <c r="L68" s="2">
         <v>0.9</v>
       </c>
-      <c r="J44" s="2">
+      <c r="M68" s="2">
         <v>0.7</v>
       </c>
-      <c r="K44" s="2">
+      <c r="N68" s="2">
         <v>0.5</v>
       </c>
-      <c r="L44" s="2">
+      <c r="O68" s="2">
         <v>0.21</v>
       </c>
-      <c r="M44" s="2">
+      <c r="P68" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N44" s="4">
+      <c r="Q68" s="4">
         <v>0.1</v>
       </c>
-      <c r="O44" s="2">
+      <c r="R68" s="2">
         <v>0.06</v>
       </c>
-      <c r="P44" s="2">
+      <c r="S68" s="2">
         <v>0.04</v>
       </c>
-      <c r="T44">
+      <c r="W68">
         <v>1.4</v>
       </c>
-      <c r="U44" s="2">
+      <c r="X68" s="2">
         <v>0.19</v>
       </c>
     </row>
-    <row r="45" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G45">
+    <row r="69" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J69">
         <v>2</v>
       </c>
-      <c r="H45" s="2">
+      <c r="K69" s="2">
         <v>1.45</v>
       </c>
-      <c r="I45" s="2">
+      <c r="L69" s="2">
         <v>1</v>
       </c>
-      <c r="J45" s="2">
+      <c r="M69" s="2">
         <v>0.8</v>
       </c>
-      <c r="K45" s="2">
+      <c r="N69" s="2">
         <v>0.5</v>
       </c>
-      <c r="L45" s="2">
+      <c r="O69" s="2">
         <v>0.2</v>
       </c>
-      <c r="M45" s="2">
+      <c r="P69" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N45" s="4">
+      <c r="Q69" s="4">
         <v>0.1</v>
       </c>
-      <c r="O45" s="2">
+      <c r="R69" s="2">
         <v>0.06</v>
       </c>
-      <c r="P45" s="2">
+      <c r="S69" s="2">
         <v>0.04</v>
       </c>
-      <c r="T45">
+      <c r="W69">
         <v>1.8</v>
       </c>
-      <c r="U45" s="2">
+      <c r="X69" s="2">
         <v>0.16</v>
       </c>
     </row>
-    <row r="46" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G46">
+    <row r="70" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J70">
         <v>2.4</v>
       </c>
-      <c r="H46" s="2">
+      <c r="K70" s="2">
         <v>1.55</v>
       </c>
-      <c r="I46" s="2">
+      <c r="L70" s="2">
         <v>1.05</v>
       </c>
-      <c r="J46" s="2">
+      <c r="M70" s="2">
         <v>0.8</v>
       </c>
-      <c r="K46" s="2">
+      <c r="N70" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L46" s="2">
+      <c r="O70" s="2">
         <v>0.19</v>
       </c>
-      <c r="M46" s="2">
+      <c r="P70" s="2">
         <v>0.13</v>
       </c>
-      <c r="N46" s="4">
+      <c r="Q70" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O46" s="2">
+      <c r="R70" s="2">
         <v>0.05</v>
       </c>
-      <c r="P46" s="2">
+      <c r="S70" s="2">
         <v>0.04</v>
       </c>
-      <c r="T46">
+      <c r="W70">
         <v>2.2000000000000002</v>
       </c>
-      <c r="U46" s="2">
+      <c r="X70" s="2">
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="47" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G47">
+    <row r="71" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J71">
         <v>2.8</v>
       </c>
-      <c r="H47" s="2">
+      <c r="K71" s="2">
         <v>1.6</v>
       </c>
-      <c r="I47" s="2">
+      <c r="L71" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J47" s="2">
+      <c r="M71" s="2">
         <v>0.85</v>
       </c>
-      <c r="K47" s="2">
+      <c r="N71" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L47" s="2">
+      <c r="O71" s="2">
         <v>0.18</v>
       </c>
-      <c r="M47" s="2">
+      <c r="P71" s="2">
         <v>0.13</v>
       </c>
-      <c r="N47" s="4">
+      <c r="Q71" s="4">
         <v>0.09</v>
       </c>
-      <c r="O47" s="2">
+      <c r="R71" s="2">
         <v>0.05</v>
       </c>
-      <c r="P47" s="2">
+      <c r="S71" s="2">
         <v>0.04</v>
       </c>
-      <c r="T47">
+      <c r="W71">
         <v>2.6</v>
       </c>
-      <c r="U47" s="2">
+      <c r="X71" s="2">
         <v>0.12</v>
       </c>
     </row>
-    <row r="48" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G48">
+    <row r="72" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J72">
         <v>4</v>
       </c>
-      <c r="H48" s="2">
+      <c r="K72" s="2">
         <v>1.6</v>
       </c>
-      <c r="I48" s="2">
+      <c r="L72" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J48" s="2">
+      <c r="M72" s="2">
         <v>0.85</v>
       </c>
-      <c r="K48" s="2">
+      <c r="N72" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L48" s="5">
+      <c r="O72" s="5">
         <v>0.17</v>
       </c>
-      <c r="M48" s="5">
+      <c r="P72" s="5">
         <v>0.12</v>
       </c>
-      <c r="N48" s="4">
+      <c r="Q72" s="4">
         <v>0.09</v>
       </c>
-      <c r="O48" s="2">
+      <c r="R72" s="2">
         <v>0.05</v>
       </c>
-      <c r="P48" s="2">
+      <c r="S72" s="2">
         <v>0.03</v>
       </c>
-      <c r="T48">
+      <c r="W72">
         <v>3</v>
       </c>
-      <c r="U48" s="2">
+      <c r="X72" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="G49">
+    <row r="73" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="J73">
         <v>5</v>
       </c>
-      <c r="H49" s="2">
+      <c r="K73" s="2">
         <v>1.6</v>
       </c>
-      <c r="I49" s="2">
+      <c r="L73" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J49" s="2">
+      <c r="M73" s="2">
         <v>0.85</v>
       </c>
-      <c r="K49" s="2">
+      <c r="N73" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="L49" s="5">
+      <c r="O73" s="5">
         <v>0.16</v>
       </c>
-      <c r="M49" s="5">
+      <c r="P73" s="5">
         <v>0.11</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q73" s="3">
         <v>0.08</v>
       </c>
-      <c r="O49" s="2">
+      <c r="R73" s="2">
         <v>0.05</v>
       </c>
-      <c r="P49" s="2">
+      <c r="S73" s="2">
         <v>0.03</v>
       </c>
-      <c r="T49">
+      <c r="W73">
         <v>3.4</v>
       </c>
-      <c r="U49" s="2">
+      <c r="X73" s="2">
         <v>0.09</v>
       </c>
     </row>
-    <row r="50" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="T50">
+    <row r="74" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="W74">
         <v>3.8</v>
       </c>
-      <c r="U50" s="2">
+      <c r="X74" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="51" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="T51">
+    <row r="75" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="W75">
         <v>4.2</v>
       </c>
-      <c r="U51" s="2">
+      <c r="X75" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="52" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="T52">
+    <row r="76" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="W76">
         <v>4.5999999999999996</v>
       </c>
-      <c r="U52" s="2">
+      <c r="X76" s="2">
         <v>0.06</v>
       </c>
     </row>
-    <row r="53" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="T53">
+    <row r="77" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="W77">
         <v>5</v>
       </c>
-      <c r="U53" s="2">
+      <c r="X77" s="2">
         <v>0.05</v>
       </c>
     </row>
-    <row r="54" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="H54">
+    <row r="78" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="K78">
         <v>0</v>
       </c>
-      <c r="I54" s="5">
+      <c r="L78" s="5">
         <v>0.05</v>
       </c>
-      <c r="J54" s="5">
+      <c r="M78" s="5">
         <v>0.02</v>
       </c>
-      <c r="K54" s="5">
+      <c r="N78" s="5">
         <v>0.02</v>
       </c>
-      <c r="L54" s="5">
+      <c r="O78" s="5">
         <v>0</v>
       </c>
-      <c r="M54" s="5">
+      <c r="P78" s="5">
         <v>0</v>
       </c>
-      <c r="N54" s="5">
+      <c r="Q78" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="H55">
+    <row r="79" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="K79">
         <v>0.4</v>
       </c>
-      <c r="I55" s="5">
+      <c r="L79" s="5">
         <v>0.12</v>
       </c>
-      <c r="J55" s="5">
+      <c r="M79" s="5">
         <v>0.06</v>
       </c>
-      <c r="K55" s="5">
+      <c r="N79" s="5">
         <v>0.04</v>
       </c>
-      <c r="L55" s="5">
+      <c r="O79" s="5">
         <v>0.02</v>
       </c>
-      <c r="M55" s="5">
+      <c r="P79" s="5">
         <v>0.02</v>
       </c>
-      <c r="N55" s="5">
+      <c r="Q79" s="5">
         <v>0.02</v>
       </c>
     </row>
-    <row r="56" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="H56">
+    <row r="80" spans="10:24" x14ac:dyDescent="0.25">
+      <c r="K80">
         <v>0.8</v>
       </c>
-      <c r="I56" s="5">
+      <c r="L80" s="5">
         <v>0.32</v>
       </c>
-      <c r="J56" s="5">
+      <c r="M80" s="5">
         <v>0.24</v>
       </c>
-      <c r="K56" s="5">
+      <c r="N80" s="5">
         <v>0.18</v>
       </c>
-      <c r="L56" s="6">
+      <c r="O80" s="6">
         <v>0.12</v>
       </c>
-      <c r="M56" s="5">
+      <c r="P80" s="5">
         <v>0.06</v>
       </c>
-      <c r="N56" s="5">
+      <c r="Q80" s="5">
         <v>0.04</v>
       </c>
     </row>
-    <row r="57" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="H57">
+    <row r="81" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K81">
         <v>1.2</v>
       </c>
-      <c r="I57" s="5">
+      <c r="L81" s="5">
         <v>0.41</v>
       </c>
-      <c r="J57" s="5">
+      <c r="M81" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K57" s="5">
+      <c r="N81" s="5">
         <v>0.2</v>
       </c>
-      <c r="L57" s="6">
+      <c r="O81" s="6">
         <v>0.17</v>
       </c>
-      <c r="M57" s="5">
+      <c r="P81" s="5">
         <v>0.09</v>
       </c>
-      <c r="N57" s="5">
+      <c r="Q81" s="5">
         <v>0.06</v>
       </c>
     </row>
-    <row r="58" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="H58">
+    <row r="82" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K82">
         <v>1.6</v>
       </c>
-      <c r="I58" s="5">
+      <c r="L82" s="5">
         <v>0.34</v>
       </c>
-      <c r="J58" s="5">
+      <c r="M82" s="5">
         <v>0.2</v>
       </c>
-      <c r="K58" s="5">
+      <c r="N82" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L58" s="6">
+      <c r="O82" s="6">
         <v>0.11</v>
       </c>
-      <c r="M58" s="5">
+      <c r="P82" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N58" s="5">
+      <c r="Q82" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="59" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="H59">
+    <row r="83" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K83">
         <v>2</v>
       </c>
-      <c r="I59" s="5">
+      <c r="L83" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J59" s="5">
+      <c r="M83" s="5">
         <v>0.18</v>
       </c>
-      <c r="K59" s="5">
+      <c r="N83" s="5">
         <v>0.13</v>
       </c>
-      <c r="L59" s="6">
+      <c r="O83" s="6">
         <v>0.1</v>
       </c>
-      <c r="M59" s="5">
+      <c r="P83" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N59" s="5">
+      <c r="Q83" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="H60">
+    <row r="84" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K84">
         <v>2.4</v>
       </c>
-      <c r="I60" s="5">
+      <c r="L84" s="5">
         <v>0.27</v>
       </c>
-      <c r="J60" s="5">
+      <c r="M84" s="5">
         <v>0.16</v>
       </c>
-      <c r="K60" s="5">
+      <c r="N84" s="5">
         <v>0.12</v>
       </c>
-      <c r="L60" s="6">
+      <c r="O84" s="6">
         <v>0.09</v>
       </c>
-      <c r="M60" s="5">
+      <c r="P84" s="5">
         <v>0.06</v>
       </c>
-      <c r="N60" s="5">
+      <c r="Q84" s="5">
         <v>0.04</v>
       </c>
     </row>
-    <row r="61" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="H61">
+    <row r="85" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K85">
         <v>2.8</v>
       </c>
-      <c r="I61" s="5">
+      <c r="L85" s="5">
         <v>0.25</v>
       </c>
-      <c r="J61" s="5">
+      <c r="M85" s="5">
         <v>0.15</v>
       </c>
-      <c r="K61" s="5">
+      <c r="N85" s="5">
         <v>0.11</v>
       </c>
-      <c r="L61" s="6">
+      <c r="O85" s="6">
         <v>0.09</v>
       </c>
-      <c r="M61" s="5">
+      <c r="P85" s="5">
         <v>0.06</v>
       </c>
-      <c r="N61" s="5">
+      <c r="Q85" s="5">
         <v>0.04</v>
       </c>
     </row>
-    <row r="62" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="H62">
+    <row r="86" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K86">
         <v>4</v>
       </c>
-      <c r="I62" s="5">
+      <c r="L86" s="5">
         <v>0.24</v>
       </c>
-      <c r="J62" s="5">
+      <c r="M86" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K62" s="5">
+      <c r="N86" s="5">
         <v>0.1</v>
       </c>
-      <c r="L62" s="6">
+      <c r="O86" s="6">
         <v>0.08</v>
       </c>
-      <c r="M62" s="5">
+      <c r="P86" s="5">
         <v>0.05</v>
       </c>
-      <c r="N62" s="5">
+      <c r="Q86" s="5">
         <v>0.03</v>
       </c>
     </row>
-    <row r="63" spans="7:21" x14ac:dyDescent="0.25">
-      <c r="H63">
+    <row r="87" spans="11:17" x14ac:dyDescent="0.25">
+      <c r="K87">
         <v>5</v>
       </c>
-      <c r="I63" s="5">
+      <c r="L87" s="5">
         <v>0.24</v>
       </c>
-      <c r="J63" s="5">
+      <c r="M87" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K63" s="5">
+      <c r="N87" s="5">
         <v>0.1</v>
       </c>
-      <c r="L63" s="3">
+      <c r="O87" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M63" s="5">
+      <c r="P87" s="5">
         <v>0.05</v>
       </c>
-      <c r="N63" s="5">
+      <c r="Q87" s="5">
         <v>0.03</v>
       </c>
     </row>

--- a/coef.xlsx
+++ b/coef.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>2,5</t>
   </si>
@@ -53,12 +53,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -122,7 +128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -279,49 +285,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.287831</c:v>
+                  <c:v>4.2271900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33904000000000001</c:v>
+                  <c:v>4.23387E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44301499999999999</c:v>
+                  <c:v>4.2481900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59756100000000001</c:v>
+                  <c:v>4.2841900000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.75982700000000003</c:v>
+                  <c:v>4.40305E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74484499999999998</c:v>
+                  <c:v>4.5892500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.93806299999999998</c:v>
+                  <c:v>5.5312600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.987124</c:v>
+                  <c:v>5.75337E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55030599999999996</c:v>
+                  <c:v>6.0257900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.59895600000000004</c:v>
+                  <c:v>5.9735299999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.59789000000000003</c:v>
+                  <c:v>5.8864600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.59701300000000002</c:v>
+                  <c:v>5.8012500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.59627200000000002</c:v>
+                  <c:v>5.7466099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.59563100000000002</c:v>
+                  <c:v>5.7227399999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5068799999999999E-2</c:v>
+                  <c:v>5.6840599999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -421,49 +427,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.29361399999999999</c:v>
+                  <c:v>4.2271900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.34239700000000001</c:v>
+                  <c:v>4.23387E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44544299999999998</c:v>
+                  <c:v>4.2481900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59943400000000002</c:v>
+                  <c:v>4.2841900000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76131199999999999</c:v>
+                  <c:v>4.40305E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.752467</c:v>
+                  <c:v>4.5892500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.94533400000000001</c:v>
+                  <c:v>5.5312600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.99421300000000001</c:v>
+                  <c:v>5.75337E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55704600000000004</c:v>
+                  <c:v>6.0257900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.60543999999999998</c:v>
+                  <c:v>5.9735299999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.60417399999999999</c:v>
+                  <c:v>5.8864600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60313399999999995</c:v>
+                  <c:v>5.8012500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.60225600000000001</c:v>
+                  <c:v>5.7466099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.60149799999999998</c:v>
+                  <c:v>5.7227399999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.0833299999999998E-2</c:v>
+                  <c:v>5.6840599999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,49 +569,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.31723899999999999</c:v>
+                  <c:v>4.2271900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35181899999999999</c:v>
+                  <c:v>4.23387E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45295400000000002</c:v>
+                  <c:v>4.2481900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60581200000000002</c:v>
+                  <c:v>4.2841900000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76690199999999997</c:v>
+                  <c:v>4.40305E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76708200000000004</c:v>
+                  <c:v>4.5892500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95923199999999997</c:v>
+                  <c:v>5.5312600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0077400000000001</c:v>
+                  <c:v>5.75337E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56986199999999998</c:v>
+                  <c:v>6.0257900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61773800000000001</c:v>
+                  <c:v>5.9735299999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61606799999999995</c:v>
+                  <c:v>5.8864600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61470100000000005</c:v>
+                  <c:v>5.8012500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.61354799999999998</c:v>
+                  <c:v>5.7466099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.61255400000000004</c:v>
+                  <c:v>5.7227399999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6.16839E-2</c:v>
+                  <c:v>5.6840599999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -705,49 +711,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.29550700000000002</c:v>
+                  <c:v>4.2271900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.337115</c:v>
+                  <c:v>4.23387E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44420100000000001</c:v>
+                  <c:v>4.2481900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60309100000000004</c:v>
+                  <c:v>4.2841900000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76971999999999996</c:v>
+                  <c:v>4.40305E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71874199999999999</c:v>
+                  <c:v>4.5892500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91020900000000005</c:v>
+                  <c:v>5.5312600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.95846799999999999</c:v>
+                  <c:v>5.75337E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.52032400000000001</c:v>
+                  <c:v>6.0257900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.56817799999999996</c:v>
+                  <c:v>5.9735299999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.56659400000000004</c:v>
+                  <c:v>5.8864600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.56536299999999995</c:v>
+                  <c:v>5.8012500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.56437099999999996</c:v>
+                  <c:v>5.7466099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64911300000000005</c:v>
+                  <c:v>5.7227399999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.7467200000000004E-2</c:v>
+                  <c:v>5.6840599999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -847,49 +853,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.49286600000000003</c:v>
+                  <c:v>4.2271900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.423626</c:v>
+                  <c:v>4.23387E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.49378</c:v>
+                  <c:v>4.2481900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63172399999999995</c:v>
+                  <c:v>4.2841900000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78409700000000004</c:v>
+                  <c:v>4.40305E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79230400000000001</c:v>
+                  <c:v>4.5892500000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97469899999999998</c:v>
+                  <c:v>5.5312600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0184899999999999</c:v>
+                  <c:v>5.75337E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.57228100000000004</c:v>
+                  <c:v>6.0257900000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61463299999999998</c:v>
+                  <c:v>5.9735299999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.60977300000000001</c:v>
+                  <c:v>5.8864600000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60533899999999996</c:v>
+                  <c:v>5.8012500000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.60176499999999999</c:v>
+                  <c:v>5.7466099999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.59880500000000003</c:v>
+                  <c:v>5.7227399999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.6300099999999997E-2</c:v>
+                  <c:v>5.6840599999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,7 +985,8 @@
         <c:axId val="424255759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.5"/>
+          <c:max val="6.5000000000000016E-2"/>
+          <c:min val="4.0000000000000008E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8647,15 +8654,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8944,7 +8951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:A79"/>
     </sheetView>
   </sheetViews>
@@ -8952,7 +8959,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.287831</v>
+        <v>4.2271900000000001E-2</v>
       </c>
       <c r="B1">
         <v>0.1</v>
@@ -8960,7 +8967,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.33904000000000001</v>
+        <v>4.23387E-2</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -8968,7 +8975,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.44301499999999999</v>
+        <v>4.2481900000000003E-2</v>
       </c>
       <c r="B3">
         <v>0.5</v>
@@ -8976,7 +8983,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.59756100000000001</v>
+        <v>4.2841900000000002E-2</v>
       </c>
       <c r="B4">
         <v>0.7</v>
@@ -8984,7 +8991,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.75982700000000003</v>
+        <v>4.40305E-2</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -8992,7 +8999,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.74484499999999998</v>
+        <v>4.5892500000000003E-2</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -9000,7 +9007,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.93806299999999998</v>
+        <v>5.5312600000000003E-2</v>
       </c>
       <c r="B7">
         <v>1.3</v>
@@ -9008,7 +9015,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.987124</v>
+        <v>5.75337E-2</v>
       </c>
       <c r="B8">
         <v>1.5</v>
@@ -9016,7 +9023,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.55030599999999996</v>
+        <v>6.0257900000000003E-2</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -9024,7 +9031,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.59895600000000004</v>
+        <v>5.9735299999999998E-2</v>
       </c>
       <c r="B10">
         <v>2.5</v>
@@ -9032,7 +9039,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.59789000000000003</v>
+        <v>5.8864600000000003E-2</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -9040,7 +9047,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>0.59701300000000002</v>
+        <v>5.8012500000000002E-2</v>
       </c>
       <c r="B12">
         <v>3.5</v>
@@ -9048,7 +9055,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>0.59627200000000002</v>
+        <v>5.7466099999999999E-2</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -9056,7 +9063,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>0.59563100000000002</v>
+        <v>5.7227399999999998E-2</v>
       </c>
       <c r="B14">
         <v>4.5</v>
@@ -9064,7 +9071,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4.5068799999999999E-2</v>
+        <v>5.6840599999999998E-2</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -9072,7 +9079,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>0.29361399999999999</v>
+        <v>4.2271900000000001E-2</v>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -9080,7 +9087,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0.34239700000000001</v>
+        <v>4.23387E-2</v>
       </c>
       <c r="B18">
         <v>0.3</v>
@@ -9088,7 +9095,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>0.44544299999999998</v>
+        <v>4.2481900000000003E-2</v>
       </c>
       <c r="B19">
         <v>0.5</v>
@@ -9096,7 +9103,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>0.59943400000000002</v>
+        <v>4.2841900000000002E-2</v>
       </c>
       <c r="B20">
         <v>0.7</v>
@@ -9104,7 +9111,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>0.76131199999999999</v>
+        <v>4.40305E-2</v>
       </c>
       <c r="B21">
         <v>0.9</v>
@@ -9112,7 +9119,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>0.752467</v>
+        <v>4.5892500000000003E-2</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -9120,7 +9127,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>0.94533400000000001</v>
+        <v>5.5312600000000003E-2</v>
       </c>
       <c r="B23">
         <v>1.3</v>
@@ -9128,7 +9135,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0.99421300000000001</v>
+        <v>5.75337E-2</v>
       </c>
       <c r="B24">
         <v>1.5</v>
@@ -9136,7 +9143,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0.55704600000000004</v>
+        <v>6.0257900000000003E-2</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -9144,7 +9151,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>0.60543999999999998</v>
+        <v>5.9735299999999998E-2</v>
       </c>
       <c r="B26">
         <v>2.5</v>
@@ -9152,7 +9159,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>0.60417399999999999</v>
+        <v>5.8864600000000003E-2</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -9160,7 +9167,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>0.60313399999999995</v>
+        <v>5.8012500000000002E-2</v>
       </c>
       <c r="B28">
         <v>3.5</v>
@@ -9168,7 +9175,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>0.60225600000000001</v>
+        <v>5.7466099999999999E-2</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -9176,7 +9183,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>0.60149799999999998</v>
+        <v>5.7227399999999998E-2</v>
       </c>
       <c r="B30">
         <v>4.5</v>
@@ -9184,7 +9191,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5.0833299999999998E-2</v>
+        <v>5.6840599999999998E-2</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -9192,7 +9199,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>0.31723899999999999</v>
+        <v>4.2271900000000001E-2</v>
       </c>
       <c r="B33">
         <v>0.1</v>
@@ -9200,7 +9207,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>0.35181899999999999</v>
+        <v>4.23387E-2</v>
       </c>
       <c r="B34">
         <v>0.3</v>
@@ -9208,7 +9215,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>0.45295400000000002</v>
+        <v>4.2481900000000003E-2</v>
       </c>
       <c r="B35">
         <v>0.5</v>
@@ -9216,7 +9223,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>0.60581200000000002</v>
+        <v>4.2841900000000002E-2</v>
       </c>
       <c r="B36">
         <v>0.7</v>
@@ -9224,7 +9231,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>0.76690199999999997</v>
+        <v>4.40305E-2</v>
       </c>
       <c r="B37">
         <v>0.9</v>
@@ -9232,7 +9239,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>0.76708200000000004</v>
+        <v>4.5892500000000003E-2</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -9240,7 +9247,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>0.95923199999999997</v>
+        <v>5.5312600000000003E-2</v>
       </c>
       <c r="B39">
         <v>1.3</v>
@@ -9248,7 +9255,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1.0077400000000001</v>
+        <v>5.75337E-2</v>
       </c>
       <c r="B40">
         <v>1.5</v>
@@ -9256,7 +9263,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.56986199999999998</v>
+        <v>6.0257900000000003E-2</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -9264,7 +9271,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.61773800000000001</v>
+        <v>5.9735299999999998E-2</v>
       </c>
       <c r="B42">
         <v>2.5</v>
@@ -9272,7 +9279,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>0.61606799999999995</v>
+        <v>5.8864600000000003E-2</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -9280,7 +9287,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>0.61470100000000005</v>
+        <v>5.8012500000000002E-2</v>
       </c>
       <c r="B44">
         <v>3.5</v>
@@ -9288,7 +9295,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>0.61354799999999998</v>
+        <v>5.7466099999999999E-2</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -9296,7 +9303,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>0.61255400000000004</v>
+        <v>5.7227399999999998E-2</v>
       </c>
       <c r="B46">
         <v>4.5</v>
@@ -9304,7 +9311,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>6.16839E-2</v>
+        <v>5.6840599999999998E-2</v>
       </c>
       <c r="B47">
         <v>5</v>
@@ -9312,7 +9319,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>0.29550700000000002</v>
+        <v>4.2271900000000001E-2</v>
       </c>
       <c r="B49">
         <v>0.1</v>
@@ -9320,7 +9327,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>0.337115</v>
+        <v>4.23387E-2</v>
       </c>
       <c r="B50">
         <v>0.3</v>
@@ -9328,7 +9335,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>0.44420100000000001</v>
+        <v>4.2481900000000003E-2</v>
       </c>
       <c r="B51">
         <v>0.5</v>
@@ -9336,7 +9343,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>0.60309100000000004</v>
+        <v>4.2841900000000002E-2</v>
       </c>
       <c r="B52">
         <v>0.7</v>
@@ -9344,7 +9351,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>0.76971999999999996</v>
+        <v>4.40305E-2</v>
       </c>
       <c r="B53">
         <v>0.9</v>
@@ -9352,7 +9359,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>0.71874199999999999</v>
+        <v>4.5892500000000003E-2</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -9360,7 +9367,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>0.91020900000000005</v>
+        <v>5.5312600000000003E-2</v>
       </c>
       <c r="B55">
         <v>1.3</v>
@@ -9368,7 +9375,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>0.95846799999999999</v>
+        <v>5.75337E-2</v>
       </c>
       <c r="B56">
         <v>1.5</v>
@@ -9376,7 +9383,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>0.52032400000000001</v>
+        <v>6.0257900000000003E-2</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -9384,7 +9391,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>0.56817799999999996</v>
+        <v>5.9735299999999998E-2</v>
       </c>
       <c r="B58">
         <v>2.5</v>
@@ -9392,7 +9399,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>0.56659400000000004</v>
+        <v>5.8864600000000003E-2</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -9400,7 +9407,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>0.56536299999999995</v>
+        <v>5.8012500000000002E-2</v>
       </c>
       <c r="B60">
         <v>3.5</v>
@@ -9408,7 +9415,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>0.56437099999999996</v>
+        <v>5.7466099999999999E-2</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -9416,7 +9423,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>0.64911300000000005</v>
+        <v>5.7227399999999998E-2</v>
       </c>
       <c r="B62">
         <v>4.5</v>
@@ -9424,7 +9431,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>9.7467200000000004E-2</v>
+        <v>5.6840599999999998E-2</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -9432,7 +9439,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>0.49286600000000003</v>
+        <v>4.2271900000000001E-2</v>
       </c>
       <c r="B65">
         <v>0.1</v>
@@ -9440,7 +9447,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>0.423626</v>
+        <v>4.23387E-2</v>
       </c>
       <c r="B66">
         <v>0.3</v>
@@ -9448,7 +9455,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>0.49378</v>
+        <v>4.2481900000000003E-2</v>
       </c>
       <c r="B67">
         <v>0.5</v>
@@ -9456,7 +9463,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>0.63172399999999995</v>
+        <v>4.2841900000000002E-2</v>
       </c>
       <c r="B68">
         <v>0.7</v>
@@ -9464,7 +9471,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>0.78409700000000004</v>
+        <v>4.40305E-2</v>
       </c>
       <c r="B69">
         <v>0.9</v>
@@ -9472,7 +9479,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>0.79230400000000001</v>
+        <v>4.5892500000000003E-2</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -9480,7 +9487,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>0.97469899999999998</v>
+        <v>5.5312600000000003E-2</v>
       </c>
       <c r="B71">
         <v>1.3</v>
@@ -9488,7 +9495,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1.0184899999999999</v>
+        <v>5.75337E-2</v>
       </c>
       <c r="B72">
         <v>1.5</v>
@@ -9496,7 +9503,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>0.57228100000000004</v>
+        <v>6.0257900000000003E-2</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -9504,7 +9511,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>0.61463299999999998</v>
+        <v>5.9735299999999998E-2</v>
       </c>
       <c r="B74">
         <v>2.5</v>
@@ -9512,7 +9519,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>0.60977300000000001</v>
+        <v>5.8864600000000003E-2</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -9520,7 +9527,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>0.60533899999999996</v>
+        <v>5.8012500000000002E-2</v>
       </c>
       <c r="B76">
         <v>3.5</v>
@@ -9528,7 +9535,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>0.60176499999999999</v>
+        <v>5.7466099999999999E-2</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -9536,7 +9543,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>0.59880500000000003</v>
+        <v>5.7227399999999998E-2</v>
       </c>
       <c r="B78">
         <v>4.5</v>
@@ -9544,7 +9551,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>4.6300099999999997E-2</v>
+        <v>5.6840599999999998E-2</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -9558,10 +9565,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F3:X87"/>
+  <dimension ref="C3:X87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60:I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10252,31 +10259,31 @@
       </c>
     </row>
     <row r="37" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="G37">
+      <c r="G37" s="2">
         <v>-0.4</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="2">
         <v>0</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>0.4</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="2">
         <v>0.8</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="2">
         <v>1.2</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="2">
         <v>1.6</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="2">
         <v>2</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="2">
         <v>2.4</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="2">
         <v>2.5</v>
       </c>
     </row>
@@ -10284,31 +10291,31 @@
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
@@ -10316,31 +10323,31 @@
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="2">
         <v>3.9E-2</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="2">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="2">
         <v>0.04</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="2">
         <v>3.9E-2</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="2">
         <v>0.04</v>
       </c>
     </row>
@@ -10348,31 +10355,31 @@
       <c r="F40">
         <v>2</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="2">
         <v>3.9E-2</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="2">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="2">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="2">
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
@@ -10380,31 +10387,31 @@
       <c r="F41">
         <v>3</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="2">
         <v>3.9E-2</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="2">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="2">
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
@@ -10412,65 +10419,65 @@
       <c r="F42">
         <v>4</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="2">
         <v>3.9E-2</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="2">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="2">
         <v>5.5E-2</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="2">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="2">
         <v>0.06</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="2">
         <v>0.06</v>
       </c>
     </row>
-    <row r="44" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
+    <row r="45" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="6:15" x14ac:dyDescent="0.25">
-      <c r="G46">
+      <c r="G46" s="2">
         <v>-0.4</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="2">
         <v>0</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="2">
         <v>0.4</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="2">
         <v>0.8</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="2">
         <v>1.2</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="2">
         <v>1.6</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="2">
         <v>2</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="2">
         <v>2.4</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="2">
         <v>2.5</v>
       </c>
     </row>
@@ -10478,31 +10485,31 @@
       <c r="F47">
         <v>0</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="5">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="J47" s="7">
+      <c r="J47" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="5">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="5">
         <v>3.1E-2</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="5">
         <v>0.03</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O47" s="5">
         <v>0.03</v>
       </c>
     </row>
@@ -10510,131 +10517,229 @@
       <c r="F48">
         <v>0.5</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="5">
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="J48" s="7">
+      <c r="J48" s="5">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="5">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="5">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F49">
         <v>1</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="5">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="5">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="5">
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F50">
         <v>2</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J50" s="7">
+      <c r="J50" s="5">
         <v>5.5E-2</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="5">
         <v>5.5E-2</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="5">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="5">
         <v>4.7E-2</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N50" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:19" x14ac:dyDescent="0.25">
       <c r="F51">
         <v>4</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="5">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="5">
         <v>5.5E-2</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="5">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="5">
         <v>0.05</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="5">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="5">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="63" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0.5</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D60" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="E60" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F60" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G60" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H60" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I60" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F61" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G61" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="H61" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I61" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D62" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E62" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="F62" s="5">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G62" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H62" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I62" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D63" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E63" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F63" s="5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="G63" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H63" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I63" s="5">
+        <v>5.5E-2</v>
+      </c>
       <c r="K63" s="1">
         <v>0</v>
       </c>
@@ -10663,7 +10768,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="6:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D64" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E64" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F64" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G64" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H64" s="5">
+        <v>5.5E-2</v>
+      </c>
+      <c r="I64" s="5">
+        <v>5.7000000000000002E-2</v>
+      </c>
       <c r="J64">
         <v>0</v>
       </c>
@@ -10695,7 +10818,25 @@
         <v>-0.03</v>
       </c>
     </row>
-    <row r="65" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D65" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E65" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F65" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G65" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="H65" s="5">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I65" s="5">
+        <v>5.3999999999999999E-2</v>
+      </c>
       <c r="J65">
         <v>0.4</v>
       </c>
@@ -10727,7 +10868,25 @@
         <v>-0.02</v>
       </c>
     </row>
-    <row r="66" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D66" s="2">
+        <v>2</v>
+      </c>
+      <c r="E66" s="5">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F66" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="G66" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="H66" s="5">
+        <v>4.7E-2</v>
+      </c>
+      <c r="I66" s="5">
+        <v>0.05</v>
+      </c>
       <c r="J66">
         <v>0.8</v>
       </c>
@@ -10765,7 +10924,25 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="67" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D67" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E67" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="F67" s="5">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="G67" s="5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="H67" s="5">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="I67" s="5">
+        <v>4.8000000000000001E-2</v>
+      </c>
       <c r="J67">
         <v>1.2</v>
       </c>
@@ -10803,7 +10980,25 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="68" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D68" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="F68" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G68" s="5">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="H68" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I68" s="5">
+        <v>4.7E-2</v>
+      </c>
       <c r="J68">
         <v>1.6</v>
       </c>
@@ -10841,7 +11036,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="69" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:24" x14ac:dyDescent="0.25">
       <c r="J69">
         <v>2</v>
       </c>
@@ -10879,7 +11074,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="70" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:24" x14ac:dyDescent="0.25">
       <c r="J70">
         <v>2.4</v>
       </c>
@@ -10917,7 +11112,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="71" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:24" x14ac:dyDescent="0.25">
       <c r="J71">
         <v>2.8</v>
       </c>
@@ -10955,7 +11150,10 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="72" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
       <c r="J72">
         <v>4</v>
       </c>
@@ -10993,7 +11191,22 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
       <c r="J73">
         <v>5</v>
       </c>
@@ -11031,7 +11244,25 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="74" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D74" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="E74" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F74" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="G74" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="H74" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="I74" s="7">
+        <v>3.5000000000000003E-2</v>
+      </c>
       <c r="W74">
         <v>3.8</v>
       </c>
@@ -11039,7 +11270,25 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="75" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F75" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G75" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="H75" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="I75" s="7">
+        <v>3.9E-2</v>
+      </c>
       <c r="W75">
         <v>4.2</v>
       </c>
@@ -11047,7 +11296,25 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="76" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D76" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E76" s="7">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="F76" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="G76" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H76" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I76" s="7">
+        <v>4.4999999999999998E-2</v>
+      </c>
       <c r="W76">
         <v>4.5999999999999996</v>
       </c>
@@ -11055,7 +11322,25 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="77" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D77" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="E77" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F77" s="7">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="G77" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H77" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="I77" s="7">
+        <v>5.5E-2</v>
+      </c>
       <c r="W77">
         <v>5</v>
       </c>
@@ -11063,7 +11348,25 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="78" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D78" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E78" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F78" s="7">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="G78" s="7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="H78" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I78" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
       <c r="K78">
         <v>0</v>
       </c>
@@ -11086,7 +11389,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D79" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E79" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F79" s="7">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G79" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="H79" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I79" s="7">
+        <v>0.06</v>
+      </c>
       <c r="K79">
         <v>0.4</v>
       </c>
@@ -11109,7 +11430,25 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="80" spans="10:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="D80" s="2">
+        <v>2</v>
+      </c>
+      <c r="E80" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="G80" s="7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H80" s="7">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I80" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
       <c r="K80">
         <v>0.8</v>
       </c>
@@ -11132,7 +11471,25 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="81" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D81" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="E81" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F81" s="7">
+        <v>3.9E-2</v>
+      </c>
+      <c r="G81" s="7">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H81" s="7">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="I81" s="7">
+        <v>6.0999999999999999E-2</v>
+      </c>
       <c r="K81">
         <v>1.2</v>
       </c>
@@ -11155,7 +11512,25 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="82" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:17" x14ac:dyDescent="0.25">
+      <c r="D82" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="E82" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="G82" s="7">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="H82" s="7">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="I82" s="7">
+        <v>0.06</v>
+      </c>
       <c r="K82">
         <v>1.6</v>
       </c>
@@ -11178,7 +11553,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="83" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:17" x14ac:dyDescent="0.25">
       <c r="K83">
         <v>2</v>
       </c>
@@ -11201,7 +11576,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="84" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:17" x14ac:dyDescent="0.25">
       <c r="K84">
         <v>2.4</v>
       </c>
@@ -11224,7 +11599,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="85" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:17" x14ac:dyDescent="0.25">
       <c r="K85">
         <v>2.8</v>
       </c>
@@ -11247,7 +11622,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="86" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:17" x14ac:dyDescent="0.25">
       <c r="K86">
         <v>4</v>
       </c>
@@ -11270,7 +11645,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="87" spans="11:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:17" x14ac:dyDescent="0.25">
       <c r="K87">
         <v>5</v>
       </c>
